--- a/biology/Botanique/Auguste_Simon_Taton/Auguste_Simon_Taton.xlsx
+++ b/biology/Botanique/Auguste_Simon_Taton/Auguste_Simon_Taton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Simon Taton (25 janvier 1914-27 octobre 1989) est un botaniste belge qui a travaillé principalement au Congo belge en Afrique (maintenant connu sous le nom de République démocratique du Congo).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né à Jemeppe-sur-Meuse, maintenant une partie de Seraing, en Belgique. Taton est diplômé de l'Institut agronomique de Gembloux en 1937 et a servi dans l'armée du 25 août 1937 au 25 février 1939. De 1941 à 1945, il a servi comme associé à l'Institut de Parcs nationaux du Congo belge pour l'identification des spécimens d'herbier recueillis dans le parc national Albert, maintenant connu comme Parc national des Virunga. En novembre 1945, il est devenu l'assistant à la Division de botanique à l'INEAC (Institut national pour l'étude agronomique au Congo belge). En 1952, il a poursuivi ses études aux États-Unis à l'Université de Wisconsin-Madison et à l'Université du Massachusetts à Amherst, en prenant des cours d'agrostologie (étude des graminées).
 De septembre 1956 à février 1961, Taton était le chef de la station de l'INEAC au Kivu. Pendant son séjour en République démocratique du Congo, il a collecté 1 624 spécimens d'herbier, qu'il a déposés au Jardin botanique de l'État à Bruxelles et à Yangambi. À partir de juillet 1961, Taton a travaillé sur la flore de la République démocratique du Congo, du Rwanda et du Burundi à l'Institut belge pour l'encouragement de la recherche scientifique d'outre-mer et puis au ministère belge de l'Éducation et de la Culture.
@@ -545,7 +559,9 @@
           <t>Vie familiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taton a été marié en 1944 et a eu trois enfants. Au moment de sa mort, il avait neuf petits-enfants.
 </t>
@@ -576,7 +592,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Taton a reçu deux récompenses pour son travail de biologiste
 1955 : Médaille d'or, Ordre Royal du Lion
